--- a/outputs-HGR-r202/g__Fenollaria.xlsx
+++ b/outputs-HGR-r202/g__Fenollaria.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -485,6 +490,11 @@
         <v>0.6195591150146283</v>
       </c>
       <c r="F2" t="inlineStr">
+        <is>
+          <t>s__Fenollaria sp900539725</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>s__Fenollaria sp900539725</t>
         </is>

--- a/outputs-HGR-r202/g__Fenollaria.xlsx
+++ b/outputs-HGR-r202/g__Fenollaria.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,27 +474,56 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT47840.fa</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.359939818383412</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6202911368179811</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01976904479860692</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6202911368179811</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>s__Fenollaria sp900539725</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>s__Fenollaria sp900539725</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT5258.fa</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>0.3558387101467591</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>0.6195591150146283</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.02460217483861256</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E3" t="n">
         <v>0.6195591150146283</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>s__Fenollaria sp900539725</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>s__Fenollaria sp900539725</t>
         </is>
